--- a/pred_ohlcv/54_21/2019-11-01 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 WTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>38917.48410000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>38671.38240000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>38448.34750000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>38450.34750000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>38450.34750000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>38450.34750000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>38448.35250000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>38601.24010000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>38660.56410000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>38600.56410000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>38300.09540000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>38224.98410000002</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>38378.46010000002</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>39511.38330000002</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>41229.94940000001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>31904.33070000001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>31952.19800000001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>30162.07750000002</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>29688.07750000002</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>29689.07750000002</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>31004.25840000002</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>30652.61550000003</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>31921.43450000002</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>31873.99270000002</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>32149.20030000003</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>32133.45900000002</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>32096.78420000002</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>32096.78420000002</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>31780.21040000003</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>32500.30550000002</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>32069.91440000002</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>31637.56250000002</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>31420.22950000002</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>31920.22950000002</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>32740.11550000002</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>32747.36960000002</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>32934.58560000002</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>38391.18459109892</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>34697.04469109892</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>34196.19469109892</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>13181.87919109893</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>13182.97919109893</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>13112.04919109893</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>18209.24799109892</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>18226.17929109892</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>16536.43459109893</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>16536.43459109893</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>16106.81269109893</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>16819.81269109893</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-01 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 WTC ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>38660.56410000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>38600.56410000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>38300.09540000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>38224.98410000002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>38224.98410000002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>38378.46010000002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>39511.38330000002</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>41229.94940000001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>31904.33070000001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>31952.19800000001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>24472.21450000002</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>25393.02710000002</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>25360.45410000002</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>24268.63850000002</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>25061.35050000002</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>25562.46520000002</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>26126.46520000002</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>24974.28520000002</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>26249.59800000002</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>26174.78550000002</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>26207.66210000002</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>26507.66210000002</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>27632.66210000002</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>27710.63210000002</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>27711.63210000002</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>27711.63210000002</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>29498.43420000003</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>29498.43420000003</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>29620.38420000003</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>29621.38420000003</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>30001.49240000002</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>30187.07750000002</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>30188.07750000002</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>31904.18040000003</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>31911.43450000002</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>31795.26290000003</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>32992.87950000002</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>30141.98600000002</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>30110.54590000002</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>30110.54590000002</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>31533.09100000002</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>32313.05090000002</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>32934.58560000002</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>38391.18459109892</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>34697.04469109892</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>34196.19469109892</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>33655.19469109892</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>13181.87919109893</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>13182.97919109893</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>13112.04919109893</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>13276.31319109893</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>16320.12259109893</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>16557.99659109893</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>17412.18779109892</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>17417.18779109892</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>16709.23779109892</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>16430.43409109892</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>16430.43409109892</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>16392.89459109892</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>16183.81909109893</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>16183.81909109893</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>16083.81909109893</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>15658.26349109893</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>15658.26349109893</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>15706.38349109893</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>15706.38349109893</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>16376.81269109893</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>16876.81269109893</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>16816.81269109893</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
